--- a/data/case1/9/P_device_1.xlsx
+++ b/data/case1/9/P_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.094100585076510632</v>
+        <v>-0.015640352534859642</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.094100585952180016</v>
+        <v>0.01564035172969324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0037416870534793746</v>
+        <v>0.030706584441672825</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0037416880120299582</v>
+        <v>-0.030706585194948031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.064809352310023466</v>
+        <v>-0.067844991244612934</v>
       </c>
       <c r="B3" s="0">
-        <v>0.06480935139715599</v>
+        <v>0.067844990514494455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011706682181607402</v>
+        <v>-0.01125446203257224</v>
       </c>
       <c r="B4" s="0">
-        <v>0.011706681194038534</v>
+        <v>0.011254461268442047</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.028235971966561822</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.028235972757080691</v>
       </c>
     </row>
   </sheetData>
